--- a/variables.xlsx
+++ b/variables.xlsx
@@ -252,9 +252,6 @@
     <t>TaxiOut</t>
   </si>
   <si>
-    <t>Taxi Out Time, in Minutes</t>
-  </si>
-  <si>
     <t>WheelsOff</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>TaxiIn</t>
   </si>
   <si>
-    <t>Taxi In Time, in Minutes</t>
-  </si>
-  <si>
     <t>CRSArrTime</t>
   </si>
   <si>
@@ -715,6 +709,12 @@
   </si>
   <si>
     <t>Notes:</t>
+  </si>
+  <si>
+    <t>Taxi In Time, in Minutes Taxi-In Time: The time elapsed between wheels-on and gate arrival at the destination airport.</t>
+  </si>
+  <si>
+    <t>Taxi Out Time, in Minutes Taxi-Out Time: The time elapsed between departure from the origin airport gate and wheels off.</t>
   </si>
 </sst>
 </file>
@@ -854,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -869,6 +869,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF511A91-1078-4183-8420-D99C82B01C6B}">
   <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,10 +1235,10 @@
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1530,696 +1533,696 @@
       <c r="A47" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>75</v>
+      <c r="B47" s="14" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>81</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B81" s="11"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B83" s="1"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B84" s="1"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B86" s="1"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B104" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B105" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B106" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B109" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B111" s="1"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B113" s="1"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B115" s="1"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B117" s="1"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B120" s="1"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B121" s="1"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B122" s="1"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B123" s="1"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B125" s="1"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B127" s="1"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B129" s="1"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B130" s="1"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B131" s="1"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B135" s="1"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B137" s="1"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B139" s="1"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B141" s="1"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B145" s="1"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B147" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B148" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4"/>
       <c r="B149" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2240,107 +2243,107 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
